--- a/Source/Template_01Dec20.xlsx
+++ b/Source/Template_01Dec20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E085BC-096A-4C1B-B2EE-C15C05CB68D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A5127-F513-430C-9A36-154B4B96304A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{CFEC3D39-50CD-4BC5-8A2D-E61E52BBE13D}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" xr2:uid="{CFEC3D39-50CD-4BC5-8A2D-E61E52BBE13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -4336,11 +4336,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F5C443-44ED-45D2-824E-4C1903D8B81D}">
   <dimension ref="A1:AX68"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4514,7 +4514,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="84.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>630</v>
       </c>
@@ -4552,7 +4552,38 @@
     techBranch = parachutes
     techTier = 3
     @TechRequired = enhancedSurvivability
-    parachuteUpgradeType = standard
+}
+@PART[4mv_vl_parachute_s0_1]:HAS[~sasUpgrade[off]]:NEEDS[TantaresSP]:FOR[zKiwiTechTree]
+{
+    @MODULE[ModuleSAS]
+    {
+        @SASServiceLevel = 0
+        showUpgradesInModuleInfo = true
+        UPGRADES
+        {
+            UPGRADE
+            {
+                name__ = SAS-Level1
+                techRequired__ = survivability
+                SASServiceLevel = 1
+                moduleIsEnabled = true
+            }
+            UPGRADE
+            {
+                name__ = SAS-Level2
+                techRequired__ = advFlightControl
+                SASServiceLevel = 2
+                moduleIsEnabled = true
+            }
+            UPGRADE
+            {
+                name__ = SAS-Level3
+                techRequired__ = experimentalControl
+                SASServiceLevel = 3
+                moduleIsEnabled = true
+            }
+        }
+    }
 }</v>
       </c>
       <c r="M2" s="9" t="str">
@@ -4566,7 +4597,7 @@
         <v>3</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>288</v>
+        <v>809</v>
       </c>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
@@ -4593,7 +4624,9 @@
       <c r="AF2" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="AG2" s="18"/>
+      <c r="AG2" s="18">
+        <v>1</v>
+      </c>
       <c r="AH2" s="18"/>
       <c r="AI2" s="18"/>
       <c r="AJ2" s="18"/>
@@ -4606,7 +4639,39 @@
       <c r="AN2" s="14"/>
       <c r="AO2" s="15" t="str">
         <f>IF(P2="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O2&lt;3,"0_2",IF(O2&lt;5,"3_4",IF(O2&lt;7,"5_6",IF(O2&lt;9,"7_8","9Plus"))))),IF(P2="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",V2),IF(P2="Engine",_xlfn.CONCAT("    engineUpgradeType = ",W2,CHAR(10),Parts!AR2,CHAR(10),"    enginePartUpgradeName = ",X2),IF(P2="Parachute","    parachuteUpgradeType = standard",IF(P2="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O2),IF(OR(P2="System",P2="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",X2,IF(P2="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P2="Fuel Tank",IF(Z2="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(Z2="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",Z2,CHAR(10),"    fuelTankSizeUpgrade = ",AA2),_xlfn.CONCAT("    fuelTankUpgradeType = ",Z2))),IF(P2="RCS","    rcsUpgradeType = coldGas",IF(P2="RTG",_xlfn.CONCAT(CHAR(10),"@PART[",C2,"]:NEEDS[",A2,",NearFutureElectrical,DecayingRTGs,!FeatureRadiation]",CHAR(10),"{",CHAR(10),"    @cost *= 0.5",CHAR(10),"    !MODULE[ModuleGenerator] {}",CHAR(10),"    MODULE","    {",CHAR(10),"        name = ModuleRadioisotopeGenerator",CHAR(10),"        BasePower = TO FILL IN!!!!",CHAR(10),"        HalfLife = 8.35",CHAR(10),"        EasyMode = true",CHAR(10),"    }",CHAR(10),"}"),IF(P2="SAS",_xlfn.CONCAT(CHAR(10),"@PART[",C2,"]:HAS[~sasUpgrade[off]]:NEEDS[",A2,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @MODULE[ModuleSAS]",CHAR(10),"    {",CHAR(10),"        @SASServiceLevel = 0",CHAR(10),"        showUpgradesInModuleInfo = true",CHAR(10),"        UPGRADES",CHAR(10),"        {",CHAR(10),"            UPGRADE",CHAR(10),"            {",CHAR(10),"                name__ = SAS-Level1",CHAR(10),"                techRequired__ = survivability",CHAR(10),"                SASServiceLevel = 1",CHAR(10),"                moduleIsEnabled = true",CHAR(10),"            }",CHAR(10),"            UPGRADE",CHAR(10),"            {",CHAR(10),"                name__ = SAS-Level2",CHAR(10),"                techRequired__ = advFlightControl",CHAR(10),"                SASServiceLevel = 2",CHAR(10),"                moduleIsEnabled = true",CHAR(10),"            }",CHAR(10),"            UPGRADE",CHAR(10),"            {",CHAR(10),"                name__ = SAS-Level3",CHAR(10),"                techRequired__ = experimentalControl",CHAR(10),"                SASServiceLevel = 3",CHAR(10),"                moduleIsEnabled = true",CHAR(10),"            }",CHAR(10),"        }",CHAR(10),"    }",CHAR(10),"}"),""))))))))))</f>
-        <v xml:space="preserve">    parachuteUpgradeType = standard</v>
+        <v xml:space="preserve">
+@PART[4mv_vl_parachute_s0_1]:HAS[~sasUpgrade[off]]:NEEDS[TantaresSP]:FOR[zKiwiTechTree]
+{
+    @MODULE[ModuleSAS]
+    {
+        @SASServiceLevel = 0
+        showUpgradesInModuleInfo = true
+        UPGRADES
+        {
+            UPGRADE
+            {
+                name__ = SAS-Level1
+                techRequired__ = survivability
+                SASServiceLevel = 1
+                moduleIsEnabled = true
+            }
+            UPGRADE
+            {
+                name__ = SAS-Level2
+                techRequired__ = advFlightControl
+                SASServiceLevel = 2
+                moduleIsEnabled = true
+            }
+            UPGRADE
+            {
+                name__ = SAS-Level3
+                techRequired__ = experimentalControl
+                SASServiceLevel = 3
+                moduleIsEnabled = true
+            }
+        }
+    }
+}</v>
       </c>
       <c r="AP2" s="16" t="str">
         <f>IF(P2="Engine",VLOOKUP(W2,EngineUpgrades!$A$2:$C$19,2,FALSE),"")</f>
@@ -4629,7 +4694,7 @@
       </c>
       <c r="AX2" s="7"/>
     </row>
-    <row r="3" spans="1:50" ht="120.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" ht="348.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>630</v>
       </c>
@@ -4670,7 +4735,12 @@
     @maxTemp = 2200
     @maxPressure = 12000
     @gTolerance = 200
-    structuralUpgradeType = 5_6
+    engineUpgradeType = standardLFO
+    engineNumber = 
+    engineNumberUpgrade = 
+    engineName = 
+    engineNameUpgrade = 
+    enginePartUpgradeName = 
 }</v>
       </c>
       <c r="M3" s="9" t="str">
@@ -4684,7 +4754,7 @@
         <v>6</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T3" s="17"/>
       <c r="U3" s="17" t="str">
@@ -4710,7 +4780,31 @@
       </c>
       <c r="AD3" s="12" t="str">
         <f>IF(P3="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A3,"]",CHAR(10),"{",CHAR(10),"    name = ",X3,CHAR(10),"    type = engine",CHAR(10),"    partIcon = ",C3,CHAR(10),"    techRequired = ",AT3,CHAR(10),"    title = #LOC_KTT_PARTUPGRADE_TITLE // INSERTPARTTITLE Upgrade",CHAR(10),"    entryCost = 1",CHAR(10),"    basicInfo = #LOC_KTT_PARTUPGRADE_BASICINFO_ENGINES // Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = #LOC_KTT_PARTUPGRADE_MANUFACTURER // Kiwi Imagineers",CHAR(10),"    description = #LOC_KTT_PARTUPGRADE_DESCRIPTION_ENGINES // Our imagineers dreamt about making the INSERTPART thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X3,"]:NEEDS[",A3,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C3,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AQ3,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title ^= #:INSERTPARTTITLE:$@PART[",C3,"]/title$:",CHAR(10),"    @description ^= #:INSERTPART:$@PART[",C3,"]/engineName$:",CHAR(10),"}",CHAR(10),"@PART[",C3,"]:NEEDS[",A3,"]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    descriptionUpgrade = #LOC_KTT_PART_DESCRIPTIONUPGRADE_ENGINES // This engine has an upgrade in INSERTPARTUPGRADE!",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;$descriptionUpgrade$&lt;/color&gt;",CHAR(10),"    @description ^= #:INSERTPARTUPGRADE:$@PARTUPGRADE[",X3,"]/techRequired$:",CHAR(10),"}"),IF(OR(P3="System",P3="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"#LOC_KTT_",A3,"_",X3,"_SYSTEM_UPGRADE_TITLE = ",Y3,CHAR(10),"PARTUPGRADE:NEEDS[",A3,"]",CHAR(10),"{",CHAR(10),"    name = ",X3,"Upgrade",CHAR(10),"    type = system",CHAR(10),"    systemUpgradeName = #LOC_KTT_",A3,"_",X3,"_SYSTEM_UPGRADE_TITLE // ",Y3,CHAR(10),"    partIcon = ",C3,CHAR(10),"    techRequired = INSERT HERE",AT3,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = #LOC_KTT_PARTUPGRADE_TITLE // INSERTPARTTITLE Upgrade",CHAR(10),"    basicInfo = #LOC_KTT_PARTUPGRADE_BASICINFO_SYSTEM // Decrease in Dry Mass",CHAR(10),"    manufacturer = #LOC_KTT_PARTUPGRADE_MANUFACTURER // Kiwi Imagineers",CHAR(10),"    description = #LOC_KTT_PARTUPGRADE_DESCRIPTION_SYSTEM // The imagineers have introduced composite materials that have reduced the dry mass of the INSERTSYSTEM!",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X3,"Upgrade]:FOR[KiwiTechTree]",CHAR(10),"{",CHAR(10),"    @title ^= #:INSERTPARTTITLE:$systemUpgradeName$:",CHAR(10),"    @description ^= #:INSERTSYSTEM:$systemUpgradeName$:",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X3,"],~systemUpgrade[off]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    %systemUpgradeName = #LOC_KTT_",A3,"_",X3,"_SYSTEM_UPGRADE_TITLE // ",Y3,CHAR(10),"    %descriptionUpgrade = #LOC_KTT_PART_DESCRIPTIONUPGRADE_SYSTEM // The INSERTSYSTEMUPGRADENAME has upgrades in INSERTSYSTEMUPGRADENODE!",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;$descriptionUpgrade$&lt;/color&gt;",CHAR(10),"    @description ^= #:INSERTSYSTEMUPGRADENAME:$systemUpgradeName$:",CHAR(10),"    @description ^= #:INSERTSYSTEMUPGRADENODE:$@PARTUPGRADE[",X3,"Upgrade]/techRequired$!",CHAR(10),"}"),""))</f>
-        <v/>
+        <v>PARTUPGRADE:NEEDS[TantaresSP]
+{
+    name = 
+    type = engine
+    partIcon = 4mv_vl_avionics_s0p5_1
+    techRequired = largeUnmanned
+    title = #LOC_KTT_PARTUPGRADE_TITLE // INSERTPARTTITLE Upgrade
+    entryCost = 1
+    basicInfo = #LOC_KTT_PARTUPGRADE_BASICINFO_ENGINES // Increased Thrust, Increased Specific Impulse
+    manufacturer = #LOC_KTT_PARTUPGRADE_MANUFACTURER // Kiwi Imagineers
+    description = #LOC_KTT_PARTUPGRADE_DESCRIPTION_ENGINES // Our imagineers dreamt about making the INSERTPART thrustier and efficientier and have 'made it so'.
+}
+@PARTUPGRADE[]:NEEDS[TantaresSP]:FOR[zKiwiTechTree]
+{
+    @entryCost = #$@PART[4mv_vl_avionics_s0p5_1]/entryCost$
+    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/KEROLOX/UPGRADE_ENTRYCOST_MULTIPLIER$
+    @title ^= #:INSERTPARTTITLE:$@PART[4mv_vl_avionics_s0p5_1]/title$:
+    @description ^= #:INSERTPART:$@PART[4mv_vl_avionics_s0p5_1]/engineName$:
+}
+@PART[4mv_vl_avionics_s0p5_1]:NEEDS[TantaresSP]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
+{
+    descriptionUpgrade = #LOC_KTT_PART_DESCRIPTIONUPGRADE_ENGINES // This engine has an upgrade in INSERTPARTUPGRADE!
+    @description = #$description$ \n\n&lt;color=#ff0000&gt;$descriptionUpgrade$&lt;/color&gt;
+    @description ^= #:INSERTPARTUPGRADE:$@PARTUPGRADE[]/techRequired$:
+}</v>
       </c>
       <c r="AE3" s="14"/>
       <c r="AF3" s="18" t="s">
@@ -4729,26 +4823,35 @@
       <c r="AN3" s="14"/>
       <c r="AO3" s="15" t="str">
         <f>IF(P3="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O3&lt;3,"0_2",IF(O3&lt;5,"3_4",IF(O3&lt;7,"5_6",IF(O3&lt;9,"7_8","9Plus"))))),IF(P3="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",V3),IF(P3="Engine",_xlfn.CONCAT("    engineUpgradeType = ",W3,CHAR(10),Parts!AR3,CHAR(10),"    enginePartUpgradeName = ",X3),IF(P3="Parachute","    parachuteUpgradeType = standard",IF(P3="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O3),IF(OR(P3="System",P3="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",X3,IF(P3="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P3="Fuel Tank",IF(Z3="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(Z3="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",Z3,CHAR(10),"    fuelTankSizeUpgrade = ",AA3),_xlfn.CONCAT("    fuelTankUpgradeType = ",Z3))),IF(P3="RCS","    rcsUpgradeType = coldGas",IF(P3="RTG",_xlfn.CONCAT(CHAR(10),"@PART[",C3,"]:NEEDS[",A3,",NearFutureElectrical,DecayingRTGs,!FeatureRadiation]",CHAR(10),"{",CHAR(10),"    @cost *= 0.5",CHAR(10),"    !MODULE[ModuleGenerator] {}",CHAR(10),"    MODULE","    {",CHAR(10),"        name = ModuleRadioisotopeGenerator",CHAR(10),"        BasePower = TO FILL IN!!!!",CHAR(10),"        HalfLife = 8.35",CHAR(10),"        EasyMode = true",CHAR(10),"    }",CHAR(10),"}"),IF(P3="SAS",_xlfn.CONCAT(CHAR(10),"@PART[",C3,"]:HAS[~sasUpgrade[off]]:NEEDS[",A3,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @MODULE[ModuleSAS]",CHAR(10),"    {",CHAR(10),"        @SASServiceLevel = 0",CHAR(10),"        showUpgradesInModuleInfo = true",CHAR(10),"        UPGRADES",CHAR(10),"        {",CHAR(10),"            UPGRADE",CHAR(10),"            {",CHAR(10),"                name__ = SAS-Level1",CHAR(10),"                techRequired__ = survivability",CHAR(10),"                SASServiceLevel = 1",CHAR(10),"                moduleIsEnabled = true",CHAR(10),"            }",CHAR(10),"            UPGRADE",CHAR(10),"            {",CHAR(10),"                name__ = SAS-Level2",CHAR(10),"                techRequired__ = advFlightControl",CHAR(10),"                SASServiceLevel = 2",CHAR(10),"                moduleIsEnabled = true",CHAR(10),"            }",CHAR(10),"            UPGRADE",CHAR(10),"            {",CHAR(10),"                name__ = SAS-Level3",CHAR(10),"                techRequired__ = experimentalControl",CHAR(10),"                SASServiceLevel = 3",CHAR(10),"                moduleIsEnabled = true",CHAR(10),"            }",CHAR(10),"        }",CHAR(10),"    }",CHAR(10),"}"),""))))))))))</f>
-        <v xml:space="preserve">    structuralUpgradeType = 5_6</v>
+        <v xml:space="preserve">    engineUpgradeType = standardLFO
+    engineNumber = 
+    engineNumberUpgrade = 
+    engineName = 
+    engineNameUpgrade = 
+    enginePartUpgradeName = </v>
       </c>
       <c r="AP3" s="16" t="str">
         <f>IF(P3="Engine",VLOOKUP(W3,EngineUpgrades!$A$2:$C$19,2,FALSE),"")</f>
-        <v/>
+        <v>singleFuel</v>
       </c>
       <c r="AQ3" s="16" t="str">
         <f>IF(P3="Engine",VLOOKUP(W3,EngineUpgrades!$A$2:$C$19,3,FALSE),"")</f>
-        <v/>
+        <v>KEROLOX</v>
       </c>
       <c r="AR3" s="15" t="str">
         <f>_xlfn.XLOOKUP(AP3,EngineUpgrades!$D$1:$J$1,EngineUpgrades!$D$17:$J$17,"",0,1)</f>
-        <v/>
+        <v xml:space="preserve">    engineNumber = 
+    engineNumberUpgrade = 
+    engineName = 
+    engineNameUpgrade = 
+</v>
       </c>
       <c r="AS3" s="17">
         <v>2</v>
       </c>
       <c r="AT3" s="16" t="str">
         <f>IF(P3="Engine",_xlfn.XLOOKUP(_xlfn.CONCAT(N3,O3+AS3),TechTree!$C$2:$C$501,TechTree!$D$2:$D$501,"Not Valid Combination",0,1),"")</f>
-        <v/>
+        <v>largeUnmanned</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="84.5" x14ac:dyDescent="0.35">
@@ -11430,8 +11533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562D7031-958C-4005-8DEB-3BBC931ED2F9}">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19890,7 +19993,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19973,7 +20076,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20457,7 +20560,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21751,7 +21854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E288295C-8DAF-400E-9F68-0211F8ED3F75}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -22290,7 +22393,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>449</v>
       </c>
